--- a/version3/tenki_record/大阪の2018年の天気.xlsx
+++ b/version3/tenki_record/大阪の2018年の天気.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2月" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3月" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4月" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5月" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
   <si>
     <t>日</t>
   </si>
@@ -312,6 +313,18 @@
   </si>
   <si>
     <t>雨後曇時々晴</t>
+  </si>
+  <si>
+    <t>曇一時晴後時々雨</t>
+  </si>
+  <si>
+    <t>大雨後一時曇</t>
+  </si>
+  <si>
+    <t>雨後曇一時晴</t>
+  </si>
+  <si>
+    <t>大雨</t>
   </si>
 </sst>
 </file>
@@ -348,8 +361,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -697,86 +713,86 @@
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2869,86 +2885,86 @@
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4846,86 +4862,86 @@
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6823,86 +6839,86 @@
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:22">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7751,23 +7767,1111 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:22"/>
-    <row r="19" spans="1:22"/>
-    <row r="20" spans="1:22"/>
-    <row r="21" spans="1:22"/>
-    <row r="22" spans="1:22"/>
-    <row r="23" spans="1:22"/>
-    <row r="24" spans="1:22"/>
-    <row r="25" spans="1:22"/>
-    <row r="26" spans="1:22"/>
-    <row r="27" spans="1:22"/>
-    <row r="28" spans="1:22"/>
-    <row r="29" spans="1:22"/>
-    <row r="30" spans="1:22"/>
-    <row r="31" spans="1:22"/>
-    <row r="32" spans="1:22"/>
-    <row r="33" spans="1:22"/>
-    <row r="34" spans="1:22"/>
+    <row r="18" spans="1:22">
+      <c r="A18" t="n">
+        <v>14</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1004.9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1014.8</v>
+      </c>
+      <c r="D18" t="n">
+        <v>23</v>
+      </c>
+      <c r="E18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J18" t="n">
+        <v>63</v>
+      </c>
+      <c r="K18" t="n">
+        <v>28</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>52</v>
+      </c>
+      <c r="O18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="P18" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R18" t="s">
+        <v>30</v>
+      </c>
+      <c r="S18" t="s">
+        <v>30</v>
+      </c>
+      <c r="T18" t="s">
+        <v>98</v>
+      </c>
+      <c r="U18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" t="n">
+        <v>15</v>
+      </c>
+      <c r="B19" t="n">
+        <v>996.6</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1006.4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="J19" t="n">
+        <v>76</v>
+      </c>
+      <c r="K19" t="n">
+        <v>44</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N19" t="s">
+        <v>71</v>
+      </c>
+      <c r="O19" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="P19" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R19" t="s">
+        <v>30</v>
+      </c>
+      <c r="S19" t="s">
+        <v>30</v>
+      </c>
+      <c r="T19" t="s">
+        <v>100</v>
+      </c>
+      <c r="U19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" t="n">
+        <v>16</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1008.2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1018.1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="H20" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J20" t="n">
+        <v>49</v>
+      </c>
+      <c r="K20" t="n">
+        <v>31</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>38</v>
+      </c>
+      <c r="O20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="P20" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="R20" t="s">
+        <v>30</v>
+      </c>
+      <c r="S20" t="s">
+        <v>30</v>
+      </c>
+      <c r="T20" t="s">
+        <v>77</v>
+      </c>
+      <c r="U20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" t="n">
+        <v>17</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1010.6</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1020.5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="H21" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="I21" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="J21" t="n">
+        <v>68</v>
+      </c>
+      <c r="K21" t="n">
+        <v>40</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>46</v>
+      </c>
+      <c r="O21" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="P21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R21" t="s">
+        <v>30</v>
+      </c>
+      <c r="S21" t="s">
+        <v>30</v>
+      </c>
+      <c r="T21" t="s">
+        <v>47</v>
+      </c>
+      <c r="U21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" t="n">
+        <v>18</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1006.2</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1016</v>
+      </c>
+      <c r="D22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="I22" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>71</v>
+      </c>
+      <c r="K22" t="n">
+        <v>44</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>49</v>
+      </c>
+      <c r="O22" t="n">
+        <v>8</v>
+      </c>
+      <c r="P22" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="R22" t="s">
+        <v>30</v>
+      </c>
+      <c r="S22" t="s">
+        <v>30</v>
+      </c>
+      <c r="T22" t="s">
+        <v>70</v>
+      </c>
+      <c r="U22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" t="n">
+        <v>19</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1007.5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1017.3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="H23" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="I23" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>61</v>
+      </c>
+      <c r="K23" t="n">
+        <v>36</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>52</v>
+      </c>
+      <c r="O23" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="P23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="R23" t="s">
+        <v>30</v>
+      </c>
+      <c r="S23" t="s">
+        <v>30</v>
+      </c>
+      <c r="T23" t="s">
+        <v>36</v>
+      </c>
+      <c r="U23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" t="n">
+        <v>20</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1009.8</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1019.5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="H24" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="I24" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="J24" t="n">
+        <v>52</v>
+      </c>
+      <c r="K24" t="n">
+        <v>27</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>29</v>
+      </c>
+      <c r="O24" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="P24" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="R24" t="s">
+        <v>30</v>
+      </c>
+      <c r="S24" t="s">
+        <v>30</v>
+      </c>
+      <c r="T24" t="s">
+        <v>36</v>
+      </c>
+      <c r="U24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" t="n">
+        <v>21</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1011.2</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1021</v>
+      </c>
+      <c r="D25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="H25" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="I25" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J25" t="n">
+        <v>49</v>
+      </c>
+      <c r="K25" t="n">
+        <v>31</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="N25" t="s">
+        <v>29</v>
+      </c>
+      <c r="O25" t="n">
+        <v>10</v>
+      </c>
+      <c r="P25" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="R25" t="s">
+        <v>30</v>
+      </c>
+      <c r="S25" t="s">
+        <v>30</v>
+      </c>
+      <c r="T25" t="s">
+        <v>36</v>
+      </c>
+      <c r="U25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" t="n">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1009.9</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1019.6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="H26" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J26" t="n">
+        <v>55</v>
+      </c>
+      <c r="K26" t="n">
+        <v>28</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="N26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O26" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="P26" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="R26" t="s">
+        <v>30</v>
+      </c>
+      <c r="S26" t="s">
+        <v>30</v>
+      </c>
+      <c r="T26" t="s">
+        <v>72</v>
+      </c>
+      <c r="U26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" t="n">
+        <v>23</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1008.1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1017.8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="H27" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="I27" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J27" t="n">
+        <v>58</v>
+      </c>
+      <c r="K27" t="n">
+        <v>43</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="N27" t="s">
+        <v>29</v>
+      </c>
+      <c r="O27" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="P27" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="R27" t="s">
+        <v>30</v>
+      </c>
+      <c r="S27" t="s">
+        <v>30</v>
+      </c>
+      <c r="T27" t="s">
+        <v>84</v>
+      </c>
+      <c r="U27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" t="n">
+        <v>24</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1000.8</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1010.5</v>
+      </c>
+      <c r="D28" t="n">
+        <v>20</v>
+      </c>
+      <c r="E28" t="n">
+        <v>5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G28" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="H28" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="I28" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="J28" t="n">
+        <v>79</v>
+      </c>
+      <c r="K28" t="n">
+        <v>53</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O28" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="P28" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="s">
+        <v>30</v>
+      </c>
+      <c r="S28" t="s">
+        <v>30</v>
+      </c>
+      <c r="T28" t="s">
+        <v>94</v>
+      </c>
+      <c r="U28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" t="n">
+        <v>25</v>
+      </c>
+      <c r="B29" t="n">
+        <v>996.2</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1005.9</v>
+      </c>
+      <c r="D29" t="n">
+        <v>36</v>
+      </c>
+      <c r="E29" t="n">
+        <v>14</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="H29" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="I29" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="J29" t="n">
+        <v>76</v>
+      </c>
+      <c r="K29" t="n">
+        <v>61</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M29" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="N29" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="P29" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R29" t="s">
+        <v>30</v>
+      </c>
+      <c r="S29" t="s">
+        <v>30</v>
+      </c>
+      <c r="T29" t="s">
+        <v>63</v>
+      </c>
+      <c r="U29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" t="n">
+        <v>26</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1003.3</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1013.1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" t="n">
+        <v>17</v>
+      </c>
+      <c r="H30" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="I30" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="J30" t="n">
+        <v>54</v>
+      </c>
+      <c r="K30" t="n">
+        <v>35</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>38</v>
+      </c>
+      <c r="O30" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="P30" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="R30" t="s">
+        <v>30</v>
+      </c>
+      <c r="S30" t="s">
+        <v>30</v>
+      </c>
+      <c r="T30" t="s">
+        <v>84</v>
+      </c>
+      <c r="U30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" t="n">
+        <v>27</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1001.8</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1011.5</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>18</v>
+      </c>
+      <c r="H31" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="I31" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J31" t="n">
+        <v>62</v>
+      </c>
+      <c r="K31" t="n">
+        <v>46</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="N31" t="s">
+        <v>71</v>
+      </c>
+      <c r="O31" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="P31" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="R31" t="s">
+        <v>30</v>
+      </c>
+      <c r="S31" t="s">
+        <v>30</v>
+      </c>
+      <c r="T31" t="s">
+        <v>47</v>
+      </c>
+      <c r="U31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" t="n">
+        <v>28</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1006</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1015.8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="H32" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="I32" t="n">
+        <v>14</v>
+      </c>
+      <c r="J32" t="n">
+        <v>50</v>
+      </c>
+      <c r="K32" t="n">
+        <v>32</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>59</v>
+      </c>
+      <c r="O32" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="P32" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="R32" t="s">
+        <v>30</v>
+      </c>
+      <c r="S32" t="s">
+        <v>30</v>
+      </c>
+      <c r="T32" t="s">
+        <v>36</v>
+      </c>
+      <c r="U32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" t="n">
+        <v>29</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1006.8</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1016.5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="H33" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="I33" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="J33" t="n">
+        <v>54</v>
+      </c>
+      <c r="K33" t="n">
+        <v>26</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>52</v>
+      </c>
+      <c r="O33" t="n">
+        <v>9</v>
+      </c>
+      <c r="P33" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="R33" t="s">
+        <v>30</v>
+      </c>
+      <c r="S33" t="s">
+        <v>30</v>
+      </c>
+      <c r="T33" t="s">
+        <v>36</v>
+      </c>
+      <c r="U33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" t="n">
+        <v>30</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1007.5</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1017.2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="H34" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="I34" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>62</v>
+      </c>
+      <c r="K34" t="n">
+        <v>49</v>
+      </c>
+      <c r="L34" t="n">
+        <v>2</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="N34" t="s">
+        <v>71</v>
+      </c>
+      <c r="O34" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="P34" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="R34" t="s">
+        <v>30</v>
+      </c>
+      <c r="S34" t="s">
+        <v>30</v>
+      </c>
+      <c r="T34" t="s">
+        <v>47</v>
+      </c>
+      <c r="U34" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="35" spans="1:22"/>
   </sheetData>
   <mergeCells count="23">
@@ -7797,4 +8901,226 @@
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="E4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1006.9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1016.6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>62</v>
+      </c>
+      <c r="K5" t="n">
+        <v>27</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="P5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="R5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" t="s">
+        <v>60</v>
+      </c>
+      <c r="U5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L1:P2"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q1:Q4"/>
+    <mergeCell ref="R1:S2"/>
+    <mergeCell ref="T1:U2"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/version3/tenki_record/大阪の2018年の天気.xlsx
+++ b/version3/tenki_record/大阪の2018年の天気.xlsx
@@ -6801,7 +6801,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V35"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6809,7 +6809,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:21">
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:21">
       <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:21">
       <c r="E4" s="5" t="s">
         <v>24</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:21">
       <c r="A5" t="n">
         <v>1</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:21">
       <c r="A6" t="n">
         <v>2</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:21">
       <c r="A7" t="n">
         <v>3</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:21">
       <c r="A8" t="n">
         <v>4</v>
       </c>
@@ -7182,7 +7182,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:21">
       <c r="A9" t="n">
         <v>5</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:21">
       <c r="A10" t="n">
         <v>6</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:21">
       <c r="A11" t="n">
         <v>7</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:21">
       <c r="A12" t="n">
         <v>8</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:21">
       <c r="A13" t="n">
         <v>9</v>
       </c>
@@ -7507,7 +7507,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:21">
       <c r="A14" t="n">
         <v>10</v>
       </c>
@@ -7572,7 +7572,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:21">
       <c r="A15" t="n">
         <v>11</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:21">
       <c r="A16" t="n">
         <v>12</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:21">
       <c r="A17" t="n">
         <v>13</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:21">
       <c r="A18" t="n">
         <v>14</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:21">
       <c r="A19" t="n">
         <v>15</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:21">
       <c r="A20" t="n">
         <v>16</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:21">
       <c r="A21" t="n">
         <v>17</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:21">
       <c r="A22" t="n">
         <v>18</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:21">
       <c r="A23" t="n">
         <v>19</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:21">
       <c r="A24" t="n">
         <v>20</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:21">
       <c r="A25" t="n">
         <v>21</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:21">
       <c r="A26" t="n">
         <v>22</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:21">
       <c r="A27" t="n">
         <v>23</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:21">
       <c r="A28" t="n">
         <v>24</v>
       </c>
@@ -8482,7 +8482,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:21">
       <c r="A29" t="n">
         <v>25</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:21">
       <c r="A30" t="n">
         <v>26</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:21">
       <c r="A31" t="n">
         <v>27</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:21">
       <c r="A32" t="n">
         <v>28</v>
       </c>
@@ -8742,7 +8742,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:21">
       <c r="A33" t="n">
         <v>29</v>
       </c>
@@ -8807,7 +8807,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:21">
       <c r="A34" t="n">
         <v>30</v>
       </c>
@@ -8872,7 +8872,6 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:22"/>
   </sheetData>
   <mergeCells count="23">
     <mergeCell ref="A1:A4"/>
@@ -8909,7 +8908,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9094,6 +9093,67 @@
       <c r="U5" t="s">
         <v>47</v>
       </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1000.1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1009.7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>20</v>
+      </c>
+      <c r="H6" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>77</v>
+      </c>
+      <c r="K6" t="n">
+        <v>53</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="N6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5</v>
+      </c>
+      <c r="P6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
+        <v>30</v>
+      </c>
+      <c r="S6" t="s">
+        <v>30</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="23">
